--- a/Code/Results/Cases/Case_1_75/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_75/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.005163512257845</v>
+        <v>1.030810476033444</v>
       </c>
       <c r="D2">
-        <v>1.041530950835666</v>
+        <v>1.041017884586774</v>
       </c>
       <c r="E2">
-        <v>1.019522690143077</v>
+        <v>1.040003573737339</v>
       </c>
       <c r="F2">
-        <v>1.02717901532131</v>
+        <v>1.049861915538041</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054056197067507</v>
+        <v>1.040192023258582</v>
       </c>
       <c r="J2">
-        <v>1.027190872816123</v>
+        <v>1.035949664630284</v>
       </c>
       <c r="K2">
-        <v>1.05244049653774</v>
+        <v>1.043798589620965</v>
       </c>
       <c r="L2">
-        <v>1.030716581338449</v>
+        <v>1.042787155324714</v>
       </c>
       <c r="M2">
-        <v>1.038272256564446</v>
+        <v>1.052617794588261</v>
       </c>
       <c r="N2">
-        <v>1.012982084823926</v>
+        <v>1.015980747531803</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.009062442978038</v>
+        <v>1.031637328132824</v>
       </c>
       <c r="D3">
-        <v>1.04414894855454</v>
+        <v>1.041557981943783</v>
       </c>
       <c r="E3">
-        <v>1.022794829642065</v>
+        <v>1.040749909746267</v>
       </c>
       <c r="F3">
-        <v>1.030913842149872</v>
+        <v>1.050718226019307</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055276556258386</v>
+        <v>1.040382465757945</v>
       </c>
       <c r="J3">
-        <v>1.029309068828856</v>
+        <v>1.03641875291547</v>
       </c>
       <c r="K3">
-        <v>1.054246459014312</v>
+        <v>1.044149939817283</v>
       </c>
       <c r="L3">
-        <v>1.033144123025825</v>
+        <v>1.043343994322152</v>
       </c>
       <c r="M3">
-        <v>1.041165882864109</v>
+        <v>1.053286322611705</v>
       </c>
       <c r="N3">
-        <v>1.013689157549308</v>
+        <v>1.016136685034754</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.011538369547196</v>
+        <v>1.032172897272404</v>
       </c>
       <c r="D4">
-        <v>1.045810833878933</v>
+        <v>1.041907401386499</v>
       </c>
       <c r="E4">
-        <v>1.024878357605818</v>
+        <v>1.04123371757628</v>
       </c>
       <c r="F4">
-        <v>1.033291323796948</v>
+        <v>1.051273301520107</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056040369890126</v>
+        <v>1.040504426056724</v>
       </c>
       <c r="J4">
-        <v>1.030651458017251</v>
+        <v>1.03672216441785</v>
       </c>
       <c r="K4">
-        <v>1.055386098571183</v>
+        <v>1.044376518097333</v>
       </c>
       <c r="L4">
-        <v>1.034685516019606</v>
+        <v>1.043704518394724</v>
       </c>
       <c r="M4">
-        <v>1.043003892713785</v>
+        <v>1.053719245464106</v>
       </c>
       <c r="N4">
-        <v>1.014137199482941</v>
+        <v>1.016237522384496</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.012568356951004</v>
+        <v>1.032398178325483</v>
       </c>
       <c r="D5">
-        <v>1.046501965104095</v>
+        <v>1.042054281048676</v>
       </c>
       <c r="E5">
-        <v>1.025746426159186</v>
+        <v>1.041437318886273</v>
       </c>
       <c r="F5">
-        <v>1.034281713359743</v>
+        <v>1.051506889213311</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056355396853302</v>
+        <v>1.040555393497864</v>
       </c>
       <c r="J5">
-        <v>1.031209213050761</v>
+        <v>1.036849688643903</v>
       </c>
       <c r="K5">
-        <v>1.05585840671969</v>
+        <v>1.044471586105348</v>
       </c>
       <c r="L5">
-        <v>1.035326669204832</v>
+        <v>1.043856132042906</v>
       </c>
       <c r="M5">
-        <v>1.043768589097004</v>
+        <v>1.053901326095907</v>
       </c>
       <c r="N5">
-        <v>1.014323342153884</v>
+        <v>1.016279898482912</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.012740667428943</v>
+        <v>1.032436011451999</v>
       </c>
       <c r="D6">
-        <v>1.04661757253326</v>
+        <v>1.042078941778145</v>
       </c>
       <c r="E6">
-        <v>1.025891725266063</v>
+        <v>1.04147151661551</v>
       </c>
       <c r="F6">
-        <v>1.03444747823664</v>
+        <v>1.051546123277378</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056407937706718</v>
+        <v>1.040563933262499</v>
       </c>
       <c r="J6">
-        <v>1.031302481262607</v>
+        <v>1.03687109872895</v>
       </c>
       <c r="K6">
-        <v>1.055937314520141</v>
+        <v>1.04448753752209</v>
       </c>
       <c r="L6">
-        <v>1.035433925349649</v>
+        <v>1.043881591492683</v>
       </c>
       <c r="M6">
-        <v>1.043896521993454</v>
+        <v>1.053931902870309</v>
       </c>
       <c r="N6">
-        <v>1.014354468062721</v>
+        <v>1.016287012669506</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.011552174639918</v>
+        <v>1.032175906988774</v>
       </c>
       <c r="D7">
-        <v>1.045820098159625</v>
+        <v>1.041909364066182</v>
       </c>
       <c r="E7">
-        <v>1.024889987304695</v>
+        <v>1.041236437289987</v>
       </c>
       <c r="F7">
-        <v>1.033304592837443</v>
+        <v>1.051276421813467</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056044603049602</v>
+        <v>1.040505108284474</v>
       </c>
       <c r="J7">
-        <v>1.030658936420551</v>
+        <v>1.036723868522124</v>
       </c>
       <c r="K7">
-        <v>1.055392436109453</v>
+        <v>1.044377789131429</v>
       </c>
       <c r="L7">
-        <v>1.034694109806476</v>
+        <v>1.043706544071679</v>
       </c>
       <c r="M7">
-        <v>1.043014141781269</v>
+        <v>1.053721678122688</v>
       </c>
       <c r="N7">
-        <v>1.014139695358295</v>
+        <v>1.016238088679129</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.006491107028525</v>
+        <v>1.031089801674747</v>
       </c>
       <c r="D8">
-        <v>1.042422472200442</v>
+        <v>1.041200424177386</v>
       </c>
       <c r="E8">
-        <v>1.020635662033491</v>
+        <v>1.040255618486016</v>
       </c>
       <c r="F8">
-        <v>1.028449507362729</v>
+        <v>1.050151104480498</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054474038935772</v>
+        <v>1.040256646332838</v>
       </c>
       <c r="J8">
-        <v>1.027912677152533</v>
+        <v>1.036108219308125</v>
       </c>
       <c r="K8">
-        <v>1.053056903162602</v>
+        <v>1.043917488377008</v>
       </c>
       <c r="L8">
-        <v>1.031543180907128</v>
+        <v>1.042975296916292</v>
       </c>
       <c r="M8">
-        <v>1.039257422768699</v>
+        <v>1.052843655262002</v>
       </c>
       <c r="N8">
-        <v>1.01322304087722</v>
+        <v>1.016033460456379</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.997197012582791</v>
+        <v>1.029180156877167</v>
       </c>
       <c r="D9">
-        <v>1.03618142582099</v>
+        <v>1.039950812252628</v>
       </c>
       <c r="E9">
-        <v>1.012869256160327</v>
+        <v>1.038534099419445</v>
       </c>
       <c r="F9">
-        <v>1.019580767595151</v>
+        <v>1.048175784169951</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05150358765412</v>
+        <v>1.039809148760323</v>
       </c>
       <c r="J9">
-        <v>1.022849141323865</v>
+        <v>1.035022502771278</v>
       </c>
       <c r="K9">
-        <v>1.048713545066622</v>
+        <v>1.043100555607477</v>
       </c>
       <c r="L9">
-        <v>1.025756933096413</v>
+        <v>1.041688432738455</v>
       </c>
       <c r="M9">
-        <v>1.032363952363612</v>
+        <v>1.051299147928496</v>
       </c>
       <c r="N9">
-        <v>1.011532533191432</v>
+        <v>1.015672404084091</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.990724181619418</v>
+        <v>1.027909988186297</v>
       </c>
       <c r="D10">
-        <v>1.03183837712605</v>
+        <v>1.039117607695721</v>
       </c>
       <c r="E10">
-        <v>1.007493924133962</v>
+        <v>1.037391106577728</v>
       </c>
       <c r="F10">
-        <v>1.013438085435375</v>
+        <v>1.046864151477467</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049379457750763</v>
+        <v>1.039504366865442</v>
       </c>
       <c r="J10">
-        <v>1.019310718080652</v>
+        <v>1.034298184863015</v>
       </c>
       <c r="K10">
-        <v>1.045655628365098</v>
+        <v>1.042552104281001</v>
       </c>
       <c r="L10">
-        <v>1.021729178983902</v>
+        <v>1.040831742244107</v>
       </c>
       <c r="M10">
-        <v>1.027568877183056</v>
+        <v>1.050271377563811</v>
       </c>
       <c r="N10">
-        <v>1.010351060980073</v>
+        <v>1.015431406906941</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9878499750065861</v>
+        <v>1.027360705755592</v>
       </c>
       <c r="D11">
-        <v>1.029911787645702</v>
+        <v>1.038756815111453</v>
       </c>
       <c r="E11">
-        <v>1.005115553459236</v>
+        <v>1.036897312552017</v>
       </c>
       <c r="F11">
-        <v>1.010719013049939</v>
+        <v>1.046297469087917</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048423801656508</v>
+        <v>1.039370874668122</v>
       </c>
       <c r="J11">
-        <v>1.017737092615413</v>
+        <v>1.033984442549891</v>
       </c>
       <c r="K11">
-        <v>1.044290829135396</v>
+        <v>1.042313728691533</v>
       </c>
       <c r="L11">
-        <v>1.019941638465692</v>
+        <v>1.040461092804794</v>
       </c>
       <c r="M11">
-        <v>1.025441576526473</v>
+        <v>1.049826813345625</v>
       </c>
       <c r="N11">
-        <v>1.009825625546601</v>
+        <v>1.015326988596665</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.986771111575948</v>
+        <v>1.027156785936697</v>
       </c>
       <c r="D12">
-        <v>1.029189003357287</v>
+        <v>1.038622801276201</v>
       </c>
       <c r="E12">
-        <v>1.004224132933155</v>
+        <v>1.036714067002476</v>
       </c>
       <c r="F12">
-        <v>1.009699707181788</v>
+        <v>1.046087169774426</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048063274547319</v>
+        <v>1.039321062332869</v>
       </c>
       <c r="J12">
-        <v>1.017146089110407</v>
+        <v>1.033867889724063</v>
       </c>
       <c r="K12">
-        <v>1.043777568875163</v>
+        <v>1.042225052747787</v>
       </c>
       <c r="L12">
-        <v>1.019270850227464</v>
+        <v>1.040323464091023</v>
       </c>
       <c r="M12">
-        <v>1.024643405961211</v>
+        <v>1.049661754253169</v>
       </c>
       <c r="N12">
-        <v>1.009628290328867</v>
+        <v>1.015288193679734</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.987003049525445</v>
+        <v>1.027200522510904</v>
       </c>
       <c r="D13">
-        <v>1.029344371340546</v>
+        <v>1.038651547639443</v>
       </c>
       <c r="E13">
-        <v>1.00441571301969</v>
+        <v>1.036753366002681</v>
       </c>
       <c r="F13">
-        <v>1.009918780564876</v>
+        <v>1.046132270981956</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04814086285524</v>
+        <v>1.039331757523007</v>
       </c>
       <c r="J13">
-        <v>1.017273159340446</v>
+        <v>1.033892891357885</v>
       </c>
       <c r="K13">
-        <v>1.043887953929586</v>
+        <v>1.042244080017423</v>
       </c>
       <c r="L13">
-        <v>1.019415049722155</v>
+        <v>1.040352983767779</v>
       </c>
       <c r="M13">
-        <v>1.024814983687386</v>
+        <v>1.049697156710517</v>
       </c>
       <c r="N13">
-        <v>1.009670718787004</v>
+        <v>1.01529651573507</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9877610285613062</v>
+        <v>1.027343847464532</v>
       </c>
       <c r="D14">
-        <v>1.029852189685887</v>
+        <v>1.038745737462213</v>
       </c>
       <c r="E14">
-        <v>1.005042033421726</v>
+        <v>1.036882161907688</v>
       </c>
       <c r="F14">
-        <v>1.01063494957236</v>
+        <v>1.046280081757862</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048394114636555</v>
+        <v>1.039366761798326</v>
       </c>
       <c r="J14">
-        <v>1.017688374007341</v>
+        <v>1.033974808554953</v>
       </c>
       <c r="K14">
-        <v>1.044248532852274</v>
+        <v>1.042306401407676</v>
       </c>
       <c r="L14">
-        <v>1.01988633163115</v>
+        <v>1.040449715405458</v>
       </c>
       <c r="M14">
-        <v>1.025375764621843</v>
+        <v>1.049813168034126</v>
       </c>
       <c r="N14">
-        <v>1.009809358428337</v>
+        <v>1.015323781983997</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9882265368432817</v>
+        <v>1.027432169075732</v>
       </c>
       <c r="D15">
-        <v>1.030164116458073</v>
+        <v>1.038803771059915</v>
       </c>
       <c r="E15">
-        <v>1.00542686073258</v>
+        <v>1.036961540101445</v>
       </c>
       <c r="F15">
-        <v>1.011074956811621</v>
+        <v>1.046371178323986</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048549410490845</v>
+        <v>1.03938829898375</v>
       </c>
       <c r="J15">
-        <v>1.017943333604496</v>
+        <v>1.034025278498411</v>
       </c>
       <c r="K15">
-        <v>1.044469854768</v>
+        <v>1.042344782141064</v>
       </c>
       <c r="L15">
-        <v>1.020175792081151</v>
+        <v>1.040509321229784</v>
       </c>
       <c r="M15">
-        <v>1.025720210348934</v>
+        <v>1.049884656010561</v>
       </c>
       <c r="N15">
-        <v>1.009894489384799</v>
+        <v>1.015340580399994</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9909133843414765</v>
+        <v>1.027946457327649</v>
       </c>
       <c r="D16">
-        <v>1.031965247969219</v>
+        <v>1.039141552283806</v>
       </c>
       <c r="E16">
-        <v>1.007650668430016</v>
+        <v>1.037423902014917</v>
       </c>
       <c r="F16">
-        <v>1.013617257704188</v>
+        <v>1.04690178710439</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049442111707842</v>
+        <v>1.039513194364471</v>
       </c>
       <c r="J16">
-        <v>1.019414259015477</v>
+        <v>1.034319004740564</v>
       </c>
       <c r="K16">
-        <v>1.045745331408538</v>
+        <v>1.042567905803499</v>
       </c>
       <c r="L16">
-        <v>1.021846872104702</v>
+        <v>1.040856347537594</v>
       </c>
       <c r="M16">
-        <v>1.027708956508097</v>
+        <v>1.05030089181144</v>
       </c>
       <c r="N16">
-        <v>1.010385633512144</v>
+        <v>1.015438335476431</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9925792894675909</v>
+        <v>1.028269247717658</v>
       </c>
       <c r="D17">
-        <v>1.033082557518674</v>
+        <v>1.039353432405707</v>
       </c>
       <c r="E17">
-        <v>1.009031756172984</v>
+        <v>1.037714233115608</v>
       </c>
       <c r="F17">
-        <v>1.015195824094864</v>
+        <v>1.047234963567205</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0499923589063</v>
+        <v>1.039591131737875</v>
       </c>
       <c r="J17">
-        <v>1.020325652025065</v>
+        <v>1.034503223449911</v>
       </c>
       <c r="K17">
-        <v>1.046534370951162</v>
+        <v>1.04270762745329</v>
       </c>
       <c r="L17">
-        <v>1.022883257745245</v>
+        <v>1.04107411016323</v>
       </c>
       <c r="M17">
-        <v>1.028942560095349</v>
+        <v>1.050562111777105</v>
       </c>
       <c r="N17">
-        <v>1.010689949220861</v>
+        <v>1.015499637583907</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9935441289805992</v>
+        <v>1.028457594190283</v>
       </c>
       <c r="D18">
-        <v>1.033729842469188</v>
+        <v>1.039477017442889</v>
       </c>
       <c r="E18">
-        <v>1.009832443127229</v>
+        <v>1.037883687182724</v>
       </c>
       <c r="F18">
-        <v>1.016110887929334</v>
+        <v>1.047429421511425</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050309856935636</v>
+        <v>1.039636444605893</v>
       </c>
       <c r="J18">
-        <v>1.020853269694642</v>
+        <v>1.034610664614053</v>
       </c>
       <c r="K18">
-        <v>1.04699069126688</v>
+        <v>1.042789038512368</v>
       </c>
       <c r="L18">
-        <v>1.0234835870207</v>
+        <v>1.041201156576296</v>
       </c>
       <c r="M18">
-        <v>1.029657202847215</v>
+        <v>1.050714521923048</v>
       </c>
       <c r="N18">
-        <v>1.010866121034202</v>
+        <v>1.015535387769949</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.993871967026291</v>
+        <v>1.028521827005802</v>
       </c>
       <c r="D19">
-        <v>1.033949807065793</v>
+        <v>1.039519156506522</v>
       </c>
       <c r="E19">
-        <v>1.010104639662342</v>
+        <v>1.037941485046559</v>
       </c>
       <c r="F19">
-        <v>1.016421948745611</v>
+        <v>1.047495747236097</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050417534806445</v>
+        <v>1.039651870214953</v>
       </c>
       <c r="J19">
-        <v>1.021032505817089</v>
+        <v>1.034647297456894</v>
       </c>
       <c r="K19">
-        <v>1.047145626806435</v>
+        <v>1.042816782911605</v>
       </c>
       <c r="L19">
-        <v>1.023687583583485</v>
+        <v>1.041244481021841</v>
       </c>
       <c r="M19">
-        <v>1.0299000567096</v>
+        <v>1.05076649741923</v>
       </c>
       <c r="N19">
-        <v>1.010925967890076</v>
+        <v>1.015547576577909</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.992401266319186</v>
+        <v>1.028234608287492</v>
       </c>
       <c r="D20">
-        <v>1.032963140007011</v>
+        <v>1.039330699768165</v>
       </c>
       <c r="E20">
-        <v>1.008884085588295</v>
+        <v>1.037683072064107</v>
       </c>
       <c r="F20">
-        <v>1.015027050074211</v>
+        <v>1.047199204278445</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049933680766226</v>
+        <v>1.039582784960819</v>
       </c>
       <c r="J20">
-        <v>1.020228281930058</v>
+        <v>1.034483459602094</v>
       </c>
       <c r="K20">
-        <v>1.046450120622826</v>
+        <v>1.042692645549704</v>
       </c>
       <c r="L20">
-        <v>1.022772497395201</v>
+        <v>1.041050743268068</v>
       </c>
       <c r="M20">
-        <v>1.028810715013776</v>
+        <v>1.050534080684518</v>
       </c>
       <c r="N20">
-        <v>1.01065743722717</v>
+        <v>1.01549306109592</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9875381376913975</v>
+        <v>1.027301638840005</v>
       </c>
       <c r="D21">
-        <v>1.029702849648304</v>
+        <v>1.038718000874387</v>
       </c>
       <c r="E21">
-        <v>1.004857821113563</v>
+        <v>1.036844229973645</v>
       </c>
       <c r="F21">
-        <v>1.010424316455416</v>
+        <v>1.046236549859162</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048319692956348</v>
+        <v>1.039356460181403</v>
       </c>
       <c r="J21">
-        <v>1.017566284923474</v>
+        <v>1.033950686385152</v>
       </c>
       <c r="K21">
-        <v>1.044142527266547</v>
+        <v>1.042288052961278</v>
       </c>
       <c r="L21">
-        <v>1.019747741354584</v>
+        <v>1.040421229040398</v>
       </c>
       <c r="M21">
-        <v>1.025210852133068</v>
+        <v>1.049779003593937</v>
       </c>
       <c r="N21">
-        <v>1.00976859297897</v>
+        <v>1.0153157530066</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9844150940040405</v>
+        <v>1.026715670341748</v>
       </c>
       <c r="D22">
-        <v>1.027611398329429</v>
+        <v>1.038332777200176</v>
       </c>
       <c r="E22">
-        <v>1.002279944240171</v>
+        <v>1.03631781003929</v>
       </c>
       <c r="F22">
-        <v>1.007476239182321</v>
+        <v>1.045632401243597</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047272694825279</v>
+        <v>1.039212845658114</v>
       </c>
       <c r="J22">
-        <v>1.015854898939099</v>
+        <v>1.033615624772394</v>
       </c>
       <c r="K22">
-        <v>1.042655019846866</v>
+        <v>1.042032902870065</v>
       </c>
       <c r="L22">
-        <v>1.017806369892521</v>
+        <v>1.040025701047819</v>
       </c>
       <c r="M22">
-        <v>1.022901031105967</v>
+        <v>1.049304673200332</v>
       </c>
       <c r="N22">
-        <v>1.009197169258116</v>
+        <v>1.015204218746617</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9860770612502691</v>
+        <v>1.027026243412359</v>
       </c>
       <c r="D23">
-        <v>1.028724144088382</v>
+        <v>1.038536990463874</v>
       </c>
       <c r="E23">
-        <v>1.003651047453142</v>
+        <v>1.03659678042664</v>
       </c>
       <c r="F23">
-        <v>1.009044350600298</v>
+        <v>1.045952565941682</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047830838775959</v>
+        <v>1.039289102789325</v>
       </c>
       <c r="J23">
-        <v>1.016765799585821</v>
+        <v>1.03379325500364</v>
       </c>
       <c r="K23">
-        <v>1.043447117113103</v>
+        <v>1.04216823494667</v>
       </c>
       <c r="L23">
-        <v>1.018839378318014</v>
+        <v>1.040235351601988</v>
       </c>
       <c r="M23">
-        <v>1.024130029982512</v>
+        <v>1.049556084675539</v>
       </c>
       <c r="N23">
-        <v>1.009501312939032</v>
+        <v>1.015263350101385</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9924817284625067</v>
+        <v>1.028250260144102</v>
       </c>
       <c r="D24">
-        <v>1.033017113290518</v>
+        <v>1.039340971672071</v>
       </c>
       <c r="E24">
-        <v>1.008950826618959</v>
+        <v>1.037697152065882</v>
       </c>
       <c r="F24">
-        <v>1.015103329334668</v>
+        <v>1.047215361985852</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049960205547598</v>
+        <v>1.039586556963423</v>
       </c>
       <c r="J24">
-        <v>1.020272291573117</v>
+        <v>1.034492390066768</v>
       </c>
       <c r="K24">
-        <v>1.046488201798233</v>
+        <v>1.04269941549362</v>
       </c>
       <c r="L24">
-        <v>1.022822558117635</v>
+        <v>1.04106130167226</v>
       </c>
       <c r="M24">
-        <v>1.02887030524134</v>
+        <v>1.050546746589961</v>
       </c>
       <c r="N24">
-        <v>1.010672132102929</v>
+        <v>1.015496032747268</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.999646692979675</v>
+        <v>1.029673336832071</v>
       </c>
       <c r="D25">
-        <v>1.037826140483517</v>
+        <v>1.040273898429275</v>
       </c>
       <c r="E25">
-        <v>1.014910655485638</v>
+        <v>1.038978335268377</v>
       </c>
       <c r="F25">
-        <v>1.02191263287809</v>
+        <v>1.048685535380365</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052296303090473</v>
+        <v>1.039925978545147</v>
       </c>
       <c r="J25">
-        <v>1.024185953168181</v>
+        <v>1.03530328127612</v>
       </c>
       <c r="K25">
-        <v>1.049864320035784</v>
+        <v>1.043312433583729</v>
       </c>
       <c r="L25">
-        <v>1.027281829757795</v>
+        <v>1.042020909334904</v>
       </c>
       <c r="M25">
-        <v>1.034180046867459</v>
+        <v>1.051698112208818</v>
       </c>
       <c r="N25">
-        <v>1.01197887263058</v>
+        <v>1.015765799389391</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_75/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_75/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030810476033444</v>
+        <v>1.005163512257845</v>
       </c>
       <c r="D2">
-        <v>1.041017884586774</v>
+        <v>1.041530950835666</v>
       </c>
       <c r="E2">
-        <v>1.040003573737339</v>
+        <v>1.019522690143076</v>
       </c>
       <c r="F2">
-        <v>1.049861915538041</v>
+        <v>1.02717901532131</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040192023258582</v>
+        <v>1.054056197067508</v>
       </c>
       <c r="J2">
-        <v>1.035949664630284</v>
+        <v>1.027190872816123</v>
       </c>
       <c r="K2">
-        <v>1.043798589620965</v>
+        <v>1.05244049653774</v>
       </c>
       <c r="L2">
-        <v>1.042787155324714</v>
+        <v>1.030716581338449</v>
       </c>
       <c r="M2">
-        <v>1.052617794588261</v>
+        <v>1.038272256564446</v>
       </c>
       <c r="N2">
-        <v>1.015980747531803</v>
+        <v>1.012982084823926</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031637328132824</v>
+        <v>1.009062442978037</v>
       </c>
       <c r="D3">
-        <v>1.041557981943783</v>
+        <v>1.04414894855454</v>
       </c>
       <c r="E3">
-        <v>1.040749909746267</v>
+        <v>1.022794829642065</v>
       </c>
       <c r="F3">
-        <v>1.050718226019307</v>
+        <v>1.030913842149871</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040382465757945</v>
+        <v>1.055276556258385</v>
       </c>
       <c r="J3">
-        <v>1.03641875291547</v>
+        <v>1.029309068828855</v>
       </c>
       <c r="K3">
-        <v>1.044149939817283</v>
+        <v>1.054246459014312</v>
       </c>
       <c r="L3">
-        <v>1.043343994322152</v>
+        <v>1.033144123025824</v>
       </c>
       <c r="M3">
-        <v>1.053286322611705</v>
+        <v>1.041165882864108</v>
       </c>
       <c r="N3">
-        <v>1.016136685034754</v>
+        <v>1.013689157549308</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032172897272404</v>
+        <v>1.011538369547195</v>
       </c>
       <c r="D4">
-        <v>1.041907401386499</v>
+        <v>1.045810833878933</v>
       </c>
       <c r="E4">
-        <v>1.04123371757628</v>
+        <v>1.024878357605817</v>
       </c>
       <c r="F4">
-        <v>1.051273301520107</v>
+        <v>1.033291323796947</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040504426056724</v>
+        <v>1.056040369890126</v>
       </c>
       <c r="J4">
-        <v>1.03672216441785</v>
+        <v>1.03065145801725</v>
       </c>
       <c r="K4">
-        <v>1.044376518097333</v>
+        <v>1.055386098571183</v>
       </c>
       <c r="L4">
-        <v>1.043704518394724</v>
+        <v>1.034685516019604</v>
       </c>
       <c r="M4">
-        <v>1.053719245464106</v>
+        <v>1.043003892713784</v>
       </c>
       <c r="N4">
-        <v>1.016237522384496</v>
+        <v>1.014137199482941</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032398178325483</v>
+        <v>1.012568356951004</v>
       </c>
       <c r="D5">
-        <v>1.042054281048676</v>
+        <v>1.046501965104095</v>
       </c>
       <c r="E5">
-        <v>1.041437318886273</v>
+        <v>1.025746426159186</v>
       </c>
       <c r="F5">
-        <v>1.051506889213311</v>
+        <v>1.034281713359742</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040555393497864</v>
+        <v>1.056355396853302</v>
       </c>
       <c r="J5">
-        <v>1.036849688643903</v>
+        <v>1.03120921305076</v>
       </c>
       <c r="K5">
-        <v>1.044471586105348</v>
+        <v>1.05585840671969</v>
       </c>
       <c r="L5">
-        <v>1.043856132042906</v>
+        <v>1.035326669204831</v>
       </c>
       <c r="M5">
-        <v>1.053901326095907</v>
+        <v>1.043768589097003</v>
       </c>
       <c r="N5">
-        <v>1.016279898482912</v>
+        <v>1.014323342153884</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032436011451999</v>
+        <v>1.012740667428942</v>
       </c>
       <c r="D6">
-        <v>1.042078941778145</v>
+        <v>1.04661757253326</v>
       </c>
       <c r="E6">
-        <v>1.04147151661551</v>
+        <v>1.025891725266063</v>
       </c>
       <c r="F6">
-        <v>1.051546123277378</v>
+        <v>1.034447478236639</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040563933262499</v>
+        <v>1.056407937706718</v>
       </c>
       <c r="J6">
-        <v>1.03687109872895</v>
+        <v>1.031302481262607</v>
       </c>
       <c r="K6">
-        <v>1.04448753752209</v>
+        <v>1.055937314520141</v>
       </c>
       <c r="L6">
-        <v>1.043881591492683</v>
+        <v>1.035433925349648</v>
       </c>
       <c r="M6">
-        <v>1.053931902870309</v>
+        <v>1.043896521993453</v>
       </c>
       <c r="N6">
-        <v>1.016287012669506</v>
+        <v>1.01435446806272</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032175906988774</v>
+        <v>1.011552174639918</v>
       </c>
       <c r="D7">
-        <v>1.041909364066182</v>
+        <v>1.045820098159625</v>
       </c>
       <c r="E7">
-        <v>1.041236437289987</v>
+        <v>1.024889987304696</v>
       </c>
       <c r="F7">
-        <v>1.051276421813467</v>
+        <v>1.033304592837444</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040505108284474</v>
+        <v>1.056044603049602</v>
       </c>
       <c r="J7">
-        <v>1.036723868522124</v>
+        <v>1.03065893642055</v>
       </c>
       <c r="K7">
-        <v>1.044377789131429</v>
+        <v>1.055392436109453</v>
       </c>
       <c r="L7">
-        <v>1.043706544071679</v>
+        <v>1.034694109806476</v>
       </c>
       <c r="M7">
-        <v>1.053721678122688</v>
+        <v>1.043014141781269</v>
       </c>
       <c r="N7">
-        <v>1.016238088679129</v>
+        <v>1.014139695358295</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031089801674747</v>
+        <v>1.006491107028524</v>
       </c>
       <c r="D8">
-        <v>1.041200424177386</v>
+        <v>1.042422472200442</v>
       </c>
       <c r="E8">
-        <v>1.040255618486016</v>
+        <v>1.02063566203349</v>
       </c>
       <c r="F8">
-        <v>1.050151104480498</v>
+        <v>1.028449507362728</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040256646332838</v>
+        <v>1.054474038935772</v>
       </c>
       <c r="J8">
-        <v>1.036108219308125</v>
+        <v>1.027912677152532</v>
       </c>
       <c r="K8">
-        <v>1.043917488377008</v>
+        <v>1.053056903162601</v>
       </c>
       <c r="L8">
-        <v>1.042975296916292</v>
+        <v>1.031543180907127</v>
       </c>
       <c r="M8">
-        <v>1.052843655262002</v>
+        <v>1.039257422768698</v>
       </c>
       <c r="N8">
-        <v>1.016033460456379</v>
+        <v>1.013223040877219</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029180156877167</v>
+        <v>0.9971970125827898</v>
       </c>
       <c r="D9">
-        <v>1.039950812252628</v>
+        <v>1.036181425820989</v>
       </c>
       <c r="E9">
-        <v>1.038534099419445</v>
+        <v>1.012869256160326</v>
       </c>
       <c r="F9">
-        <v>1.048175784169951</v>
+        <v>1.019580767595151</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039809148760323</v>
+        <v>1.051503587654119</v>
       </c>
       <c r="J9">
-        <v>1.035022502771278</v>
+        <v>1.022849141323863</v>
       </c>
       <c r="K9">
-        <v>1.043100555607477</v>
+        <v>1.048713545066621</v>
       </c>
       <c r="L9">
-        <v>1.041688432738455</v>
+        <v>1.025756933096412</v>
       </c>
       <c r="M9">
-        <v>1.051299147928496</v>
+        <v>1.032363952363611</v>
       </c>
       <c r="N9">
-        <v>1.015672404084091</v>
+        <v>1.011532533191432</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027909988186297</v>
+        <v>0.9907241816194173</v>
       </c>
       <c r="D10">
-        <v>1.039117607695721</v>
+        <v>1.03183837712605</v>
       </c>
       <c r="E10">
-        <v>1.037391106577728</v>
+        <v>1.007493924133961</v>
       </c>
       <c r="F10">
-        <v>1.046864151477467</v>
+        <v>1.013438085435374</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039504366865442</v>
+        <v>1.049379457750763</v>
       </c>
       <c r="J10">
-        <v>1.034298184863015</v>
+        <v>1.019310718080651</v>
       </c>
       <c r="K10">
-        <v>1.042552104281001</v>
+        <v>1.045655628365097</v>
       </c>
       <c r="L10">
-        <v>1.040831742244107</v>
+        <v>1.021729178983901</v>
       </c>
       <c r="M10">
-        <v>1.050271377563811</v>
+        <v>1.027568877183055</v>
       </c>
       <c r="N10">
-        <v>1.015431406906941</v>
+        <v>1.010351060980073</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027360705755592</v>
+        <v>0.9878499750065857</v>
       </c>
       <c r="D11">
-        <v>1.038756815111453</v>
+        <v>1.029911787645702</v>
       </c>
       <c r="E11">
-        <v>1.036897312552017</v>
+        <v>1.005115553459236</v>
       </c>
       <c r="F11">
-        <v>1.046297469087917</v>
+        <v>1.010719013049939</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039370874668122</v>
+        <v>1.048423801656508</v>
       </c>
       <c r="J11">
-        <v>1.033984442549891</v>
+        <v>1.017737092615412</v>
       </c>
       <c r="K11">
-        <v>1.042313728691533</v>
+        <v>1.044290829135395</v>
       </c>
       <c r="L11">
-        <v>1.040461092804794</v>
+        <v>1.019941638465691</v>
       </c>
       <c r="M11">
-        <v>1.049826813345625</v>
+        <v>1.025441576526473</v>
       </c>
       <c r="N11">
-        <v>1.015326988596665</v>
+        <v>1.009825625546601</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027156785936697</v>
+        <v>0.9867711115759473</v>
       </c>
       <c r="D12">
-        <v>1.038622801276201</v>
+        <v>1.029189003357286</v>
       </c>
       <c r="E12">
-        <v>1.036714067002476</v>
+        <v>1.004224132933154</v>
       </c>
       <c r="F12">
-        <v>1.046087169774426</v>
+        <v>1.009699707181787</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039321062332869</v>
+        <v>1.048063274547318</v>
       </c>
       <c r="J12">
-        <v>1.033867889724063</v>
+        <v>1.017146089110406</v>
       </c>
       <c r="K12">
-        <v>1.042225052747787</v>
+        <v>1.043777568875162</v>
       </c>
       <c r="L12">
-        <v>1.040323464091023</v>
+        <v>1.019270850227463</v>
       </c>
       <c r="M12">
-        <v>1.049661754253169</v>
+        <v>1.02464340596121</v>
       </c>
       <c r="N12">
-        <v>1.015288193679734</v>
+        <v>1.009628290328867</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027200522510904</v>
+        <v>0.9870030495254439</v>
       </c>
       <c r="D13">
-        <v>1.038651547639443</v>
+        <v>1.029344371340546</v>
       </c>
       <c r="E13">
-        <v>1.036753366002681</v>
+        <v>1.004415713019689</v>
       </c>
       <c r="F13">
-        <v>1.046132270981956</v>
+        <v>1.009918780564876</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039331757523007</v>
+        <v>1.048140862855239</v>
       </c>
       <c r="J13">
-        <v>1.033892891357885</v>
+        <v>1.017273159340445</v>
       </c>
       <c r="K13">
-        <v>1.042244080017423</v>
+        <v>1.043887953929585</v>
       </c>
       <c r="L13">
-        <v>1.040352983767779</v>
+        <v>1.019415049722154</v>
       </c>
       <c r="M13">
-        <v>1.049697156710517</v>
+        <v>1.024814983687385</v>
       </c>
       <c r="N13">
-        <v>1.01529651573507</v>
+        <v>1.009670718787004</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027343847464532</v>
+        <v>0.9877610285613059</v>
       </c>
       <c r="D14">
-        <v>1.038745737462213</v>
+        <v>1.029852189685887</v>
       </c>
       <c r="E14">
-        <v>1.036882161907688</v>
+        <v>1.005042033421726</v>
       </c>
       <c r="F14">
-        <v>1.046280081757862</v>
+        <v>1.010634949572359</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039366761798326</v>
+        <v>1.048394114636555</v>
       </c>
       <c r="J14">
-        <v>1.033974808554953</v>
+        <v>1.017688374007341</v>
       </c>
       <c r="K14">
-        <v>1.042306401407676</v>
+        <v>1.044248532852274</v>
       </c>
       <c r="L14">
-        <v>1.040449715405458</v>
+        <v>1.019886331631149</v>
       </c>
       <c r="M14">
-        <v>1.049813168034126</v>
+        <v>1.025375764621843</v>
       </c>
       <c r="N14">
-        <v>1.015323781983997</v>
+        <v>1.009809358428336</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027432169075732</v>
+        <v>0.988226536843281</v>
       </c>
       <c r="D15">
-        <v>1.038803771059915</v>
+        <v>1.030164116458073</v>
       </c>
       <c r="E15">
-        <v>1.036961540101445</v>
+        <v>1.005426860732579</v>
       </c>
       <c r="F15">
-        <v>1.046371178323986</v>
+        <v>1.01107495681162</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03938829898375</v>
+        <v>1.048549410490845</v>
       </c>
       <c r="J15">
-        <v>1.034025278498411</v>
+        <v>1.017943333604495</v>
       </c>
       <c r="K15">
-        <v>1.042344782141064</v>
+        <v>1.044469854768001</v>
       </c>
       <c r="L15">
-        <v>1.040509321229784</v>
+        <v>1.02017579208115</v>
       </c>
       <c r="M15">
-        <v>1.049884656010561</v>
+        <v>1.025720210348933</v>
       </c>
       <c r="N15">
-        <v>1.015340580399994</v>
+        <v>1.009894489384799</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027946457327649</v>
+        <v>0.9909133843414764</v>
       </c>
       <c r="D16">
-        <v>1.039141552283806</v>
+        <v>1.031965247969219</v>
       </c>
       <c r="E16">
-        <v>1.037423902014917</v>
+        <v>1.007650668430016</v>
       </c>
       <c r="F16">
-        <v>1.04690178710439</v>
+        <v>1.013617257704189</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039513194364471</v>
+        <v>1.049442111707842</v>
       </c>
       <c r="J16">
-        <v>1.034319004740564</v>
+        <v>1.019414259015477</v>
       </c>
       <c r="K16">
-        <v>1.042567905803499</v>
+        <v>1.045745331408538</v>
       </c>
       <c r="L16">
-        <v>1.040856347537594</v>
+        <v>1.021846872104702</v>
       </c>
       <c r="M16">
-        <v>1.05030089181144</v>
+        <v>1.027708956508097</v>
       </c>
       <c r="N16">
-        <v>1.015438335476431</v>
+        <v>1.010385633512144</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028269247717658</v>
+        <v>0.9925792894675901</v>
       </c>
       <c r="D17">
-        <v>1.039353432405707</v>
+        <v>1.033082557518674</v>
       </c>
       <c r="E17">
-        <v>1.037714233115608</v>
+        <v>1.009031756172983</v>
       </c>
       <c r="F17">
-        <v>1.047234963567205</v>
+        <v>1.015195824094863</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039591131737875</v>
+        <v>1.0499923589063</v>
       </c>
       <c r="J17">
-        <v>1.034503223449911</v>
+        <v>1.020325652025065</v>
       </c>
       <c r="K17">
-        <v>1.04270762745329</v>
+        <v>1.046534370951162</v>
       </c>
       <c r="L17">
-        <v>1.04107411016323</v>
+        <v>1.022883257745244</v>
       </c>
       <c r="M17">
-        <v>1.050562111777105</v>
+        <v>1.028942560095349</v>
       </c>
       <c r="N17">
-        <v>1.015499637583907</v>
+        <v>1.010689949220861</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028457594190283</v>
+        <v>0.9935441289805991</v>
       </c>
       <c r="D18">
-        <v>1.039477017442889</v>
+        <v>1.033729842469187</v>
       </c>
       <c r="E18">
-        <v>1.037883687182724</v>
+        <v>1.009832443127229</v>
       </c>
       <c r="F18">
-        <v>1.047429421511425</v>
+        <v>1.016110887929334</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039636444605893</v>
+        <v>1.050309856935636</v>
       </c>
       <c r="J18">
-        <v>1.034610664614053</v>
+        <v>1.020853269694642</v>
       </c>
       <c r="K18">
-        <v>1.042789038512368</v>
+        <v>1.04699069126688</v>
       </c>
       <c r="L18">
-        <v>1.041201156576296</v>
+        <v>1.023483587020701</v>
       </c>
       <c r="M18">
-        <v>1.050714521923048</v>
+        <v>1.029657202847215</v>
       </c>
       <c r="N18">
-        <v>1.015535387769949</v>
+        <v>1.010866121034202</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028521827005802</v>
+        <v>0.9938719670262904</v>
       </c>
       <c r="D19">
-        <v>1.039519156506522</v>
+        <v>1.033949807065793</v>
       </c>
       <c r="E19">
-        <v>1.037941485046559</v>
+        <v>1.010104639662341</v>
       </c>
       <c r="F19">
-        <v>1.047495747236097</v>
+        <v>1.01642194874561</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039651870214953</v>
+        <v>1.050417534806445</v>
       </c>
       <c r="J19">
-        <v>1.034647297456894</v>
+        <v>1.021032505817088</v>
       </c>
       <c r="K19">
-        <v>1.042816782911605</v>
+        <v>1.047145626806435</v>
       </c>
       <c r="L19">
-        <v>1.041244481021841</v>
+        <v>1.023687583583484</v>
       </c>
       <c r="M19">
-        <v>1.05076649741923</v>
+        <v>1.0299000567096</v>
       </c>
       <c r="N19">
-        <v>1.015547576577909</v>
+        <v>1.010925967890076</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028234608287492</v>
+        <v>0.9924012663191856</v>
       </c>
       <c r="D20">
-        <v>1.039330699768165</v>
+        <v>1.032963140007011</v>
       </c>
       <c r="E20">
-        <v>1.037683072064107</v>
+        <v>1.008884085588295</v>
       </c>
       <c r="F20">
-        <v>1.047199204278445</v>
+        <v>1.015027050074211</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039582784960819</v>
+        <v>1.049933680766226</v>
       </c>
       <c r="J20">
-        <v>1.034483459602094</v>
+        <v>1.020228281930058</v>
       </c>
       <c r="K20">
-        <v>1.042692645549704</v>
+        <v>1.046450120622826</v>
       </c>
       <c r="L20">
-        <v>1.041050743268068</v>
+        <v>1.0227724973952</v>
       </c>
       <c r="M20">
-        <v>1.050534080684518</v>
+        <v>1.028810715013775</v>
       </c>
       <c r="N20">
-        <v>1.01549306109592</v>
+        <v>1.01065743722717</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027301638840005</v>
+        <v>0.9875381376913972</v>
       </c>
       <c r="D21">
-        <v>1.038718000874387</v>
+        <v>1.029702849648303</v>
       </c>
       <c r="E21">
-        <v>1.036844229973645</v>
+        <v>1.004857821113563</v>
       </c>
       <c r="F21">
-        <v>1.046236549859162</v>
+        <v>1.010424316455416</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039356460181403</v>
+        <v>1.048319692956347</v>
       </c>
       <c r="J21">
-        <v>1.033950686385152</v>
+        <v>1.017566284923474</v>
       </c>
       <c r="K21">
-        <v>1.042288052961278</v>
+        <v>1.044142527266547</v>
       </c>
       <c r="L21">
-        <v>1.040421229040398</v>
+        <v>1.019747741354584</v>
       </c>
       <c r="M21">
-        <v>1.049779003593937</v>
+        <v>1.025210852133068</v>
       </c>
       <c r="N21">
-        <v>1.0153157530066</v>
+        <v>1.00976859297897</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026715670341748</v>
+        <v>0.9844150940040404</v>
       </c>
       <c r="D22">
-        <v>1.038332777200176</v>
+        <v>1.027611398329428</v>
       </c>
       <c r="E22">
-        <v>1.03631781003929</v>
+        <v>1.002279944240171</v>
       </c>
       <c r="F22">
-        <v>1.045632401243597</v>
+        <v>1.007476239182321</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039212845658114</v>
+        <v>1.047272694825279</v>
       </c>
       <c r="J22">
-        <v>1.033615624772394</v>
+        <v>1.015854898939099</v>
       </c>
       <c r="K22">
-        <v>1.042032902870065</v>
+        <v>1.042655019846866</v>
       </c>
       <c r="L22">
-        <v>1.040025701047819</v>
+        <v>1.01780636989252</v>
       </c>
       <c r="M22">
-        <v>1.049304673200332</v>
+        <v>1.022901031105967</v>
       </c>
       <c r="N22">
-        <v>1.015204218746617</v>
+        <v>1.009197169258116</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027026243412359</v>
+        <v>0.9860770612502692</v>
       </c>
       <c r="D23">
-        <v>1.038536990463874</v>
+        <v>1.028724144088382</v>
       </c>
       <c r="E23">
-        <v>1.03659678042664</v>
+        <v>1.003651047453142</v>
       </c>
       <c r="F23">
-        <v>1.045952565941682</v>
+        <v>1.009044350600298</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039289102789325</v>
+        <v>1.047830838775959</v>
       </c>
       <c r="J23">
-        <v>1.03379325500364</v>
+        <v>1.016765799585821</v>
       </c>
       <c r="K23">
-        <v>1.04216823494667</v>
+        <v>1.043447117113103</v>
       </c>
       <c r="L23">
-        <v>1.040235351601988</v>
+        <v>1.018839378318014</v>
       </c>
       <c r="M23">
-        <v>1.049556084675539</v>
+        <v>1.024130029982512</v>
       </c>
       <c r="N23">
-        <v>1.015263350101385</v>
+        <v>1.009501312939032</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028250260144102</v>
+        <v>0.9924817284625063</v>
       </c>
       <c r="D24">
-        <v>1.039340971672071</v>
+        <v>1.033017113290518</v>
       </c>
       <c r="E24">
-        <v>1.037697152065882</v>
+        <v>1.008950826618959</v>
       </c>
       <c r="F24">
-        <v>1.047215361985852</v>
+        <v>1.015103329334667</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039586556963423</v>
+        <v>1.049960205547598</v>
       </c>
       <c r="J24">
-        <v>1.034492390066768</v>
+        <v>1.020272291573117</v>
       </c>
       <c r="K24">
-        <v>1.04269941549362</v>
+        <v>1.046488201798232</v>
       </c>
       <c r="L24">
-        <v>1.04106130167226</v>
+        <v>1.022822558117635</v>
       </c>
       <c r="M24">
-        <v>1.050546746589961</v>
+        <v>1.028870305241339</v>
       </c>
       <c r="N24">
-        <v>1.015496032747268</v>
+        <v>1.010672132102929</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029673336832071</v>
+        <v>0.9996466929796741</v>
       </c>
       <c r="D25">
-        <v>1.040273898429275</v>
+        <v>1.037826140483517</v>
       </c>
       <c r="E25">
-        <v>1.038978335268377</v>
+        <v>1.014910655485637</v>
       </c>
       <c r="F25">
-        <v>1.048685535380365</v>
+        <v>1.021912632878089</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039925978545147</v>
+        <v>1.052296303090473</v>
       </c>
       <c r="J25">
-        <v>1.03530328127612</v>
+        <v>1.024185953168181</v>
       </c>
       <c r="K25">
-        <v>1.043312433583729</v>
+        <v>1.049864320035784</v>
       </c>
       <c r="L25">
-        <v>1.042020909334904</v>
+        <v>1.027281829757794</v>
       </c>
       <c r="M25">
-        <v>1.051698112208818</v>
+        <v>1.034180046867458</v>
       </c>
       <c r="N25">
-        <v>1.015765799389391</v>
+        <v>1.011978872630579</v>
       </c>
     </row>
   </sheetData>
